--- a/GWD Data/Panel Board GWD.xlsx
+++ b/GWD Data/Panel Board GWD.xlsx
@@ -101,7 +101,7 @@
     <t>UNIT TOTAL</t>
   </si>
   <si>
-    <t>Cartage@ 1.00 %</t>
+    <t>Cartage@ 1.00 % (for material)</t>
   </si>
   <si>
     <t>Contractors Profit &amp; Overhead@ 15.00 %</t>
@@ -154,6 +154,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="10.0"/>
@@ -294,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -344,6 +347,9 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -838,10 +844,13 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="19">
+        <f>F8*100.5%/D13</f>
+        <v>1859.25</v>
+      </c>
       <c r="F15" s="18">
-        <f>F14*1%</f>
-        <v>18.6603375</v>
+        <f>E15*1%</f>
+        <v>18.5925</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="5"/>
@@ -857,7 +866,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="18">
         <f>F14+F15</f>
-        <v>1884.694088</v>
+        <v>1884.62625</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="5"/>
@@ -870,26 +879,29 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="18">
+        <f>F16</f>
+        <v>1884.62625</v>
+      </c>
       <c r="F17" s="18">
-        <f>F16*15%</f>
-        <v>282.7041131</v>
+        <f>E17*15%</f>
+        <v>282.6939375</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21">
+      <c r="E18" s="21"/>
+      <c r="F18" s="22">
         <f>round(F16+F17,2)</f>
-        <v>2167.4</v>
+        <v>2167.32</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="5"/>
@@ -1018,7 +1030,7 @@
         <f>F20+F22+F24</f>
         <v>14.6127</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -1038,7 +1050,7 @@
         <f>F25/D25</f>
         <v>14.6127</v>
       </c>
-      <c r="G26" s="20"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
@@ -1049,12 +1061,15 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="18"/>
+      <c r="E27" s="19">
+        <f>F20*100.5%/D25</f>
+        <v>7.236</v>
+      </c>
       <c r="F27" s="18">
-        <f>F26*1%</f>
-        <v>0.146127</v>
-      </c>
-      <c r="G27" s="20"/>
+        <f>E27*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G27" s="21"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -1068,9 +1083,9 @@
       <c r="E28" s="9"/>
       <c r="F28" s="18">
         <f>F26+F27</f>
-        <v>14.758827</v>
-      </c>
-      <c r="G28" s="20"/>
+        <v>14.68506</v>
+      </c>
+      <c r="G28" s="21"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -1081,51 +1096,54 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="18"/>
+      <c r="E29" s="18">
+        <f>F28</f>
+        <v>14.68506</v>
+      </c>
       <c r="F29" s="18">
-        <f>F28*15%</f>
-        <v>2.21382405</v>
-      </c>
-      <c r="G29" s="20"/>
+        <f>E29*15%</f>
+        <v>2.202759</v>
+      </c>
+      <c r="G29" s="21"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21">
+      <c r="E30" s="21"/>
+      <c r="F30" s="22">
         <f>round(F28+F29,2)</f>
-        <v>16.97</v>
+        <v>16.89</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="22" t="str">
+      <c r="A31" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F18," + ",F30," x Cost Index")                                           </f>
-        <v>Say ₹ 2167.4 + 16.97 x Cost Index</v>
+        <v>Say ₹ 2167.32 + 16.89 x Cost Index</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="24">
-        <f>(F8+F10)*1.005*1.01*1.15</f>
-        <v>2167.398201</v>
-      </c>
-      <c r="I31" s="24">
-        <f>(F20+F22)*1.005*1.01*1.15</f>
-        <v>16.97265105</v>
+      <c r="H31" s="25">
+        <f>((F8*1.005*1.01)+(F10*1.005))*1.15</f>
+        <v>2167.320188</v>
+      </c>
+      <c r="I31" s="25">
+        <f>((F20*1.005*1.01)+(F22*1.005))*1.15</f>
+        <v>16.887819</v>
       </c>
     </row>
     <row r="32">
@@ -1382,10 +1400,13 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="18"/>
+      <c r="E46" s="19">
+        <f>F39*100.5%/D44</f>
+        <v>2110.5</v>
+      </c>
       <c r="F46" s="18">
-        <f>F45*1%</f>
-        <v>21.1728375</v>
+        <f>E46*1%</f>
+        <v>21.105</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="5"/>
@@ -1401,7 +1422,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="18">
         <f>F45+F46</f>
-        <v>2138.456588</v>
+        <v>2138.38875</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="5"/>
@@ -1414,26 +1435,29 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="18"/>
+      <c r="E48" s="18">
+        <f>F47</f>
+        <v>2138.38875</v>
+      </c>
       <c r="F48" s="18">
-        <f>F47*15%</f>
-        <v>320.7684881</v>
+        <f>E48*15%</f>
+        <v>320.7583125</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21">
+      <c r="E49" s="21"/>
+      <c r="F49" s="22">
         <f>round(F47+F48,2)</f>
-        <v>2459.23</v>
+        <v>2459.15</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="5"/>
@@ -1562,7 +1586,7 @@
         <f>F51+F53+F55</f>
         <v>14.6127</v>
       </c>
-      <c r="G56" s="20"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
@@ -1582,7 +1606,7 @@
         <f>F56/D56</f>
         <v>14.6127</v>
       </c>
-      <c r="G57" s="20"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
@@ -1593,12 +1617,15 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="18"/>
+      <c r="E58" s="19">
+        <f>F51*100.5%/D56</f>
+        <v>7.236</v>
+      </c>
       <c r="F58" s="18">
-        <f>F57*1%</f>
-        <v>0.146127</v>
-      </c>
-      <c r="G58" s="20"/>
+        <f>E58*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G58" s="21"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
@@ -1612,9 +1639,9 @@
       <c r="E59" s="9"/>
       <c r="F59" s="18">
         <f>F57+F58</f>
-        <v>14.758827</v>
-      </c>
-      <c r="G59" s="20"/>
+        <v>14.68506</v>
+      </c>
+      <c r="G59" s="21"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
@@ -1625,51 +1652,54 @@
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="18"/>
+      <c r="E60" s="18">
+        <f>F59</f>
+        <v>14.68506</v>
+      </c>
       <c r="F60" s="18">
-        <f>F59*15%</f>
-        <v>2.21382405</v>
-      </c>
-      <c r="G60" s="20"/>
+        <f>E60*15%</f>
+        <v>2.202759</v>
+      </c>
+      <c r="G60" s="21"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
     <row r="61">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21">
+      <c r="E61" s="21"/>
+      <c r="F61" s="22">
         <f>round(F59+F60,2)</f>
-        <v>16.97</v>
+        <v>16.89</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
     <row r="62">
-      <c r="A62" s="22" t="str">
+      <c r="A62" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F49," + ",F61," x Cost Index")                                           </f>
-        <v>Say ₹ 2459.23 + 16.97 x Cost Index</v>
+        <v>Say ₹ 2459.15 + 16.89 x Cost Index</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H62" s="24">
-        <f>(F39+F41)*1.005*1.01*1.15</f>
-        <v>2459.225076</v>
-      </c>
-      <c r="I62" s="24">
-        <f>(F51+F53)*1.005*1.01*1.15</f>
-        <v>16.97265105</v>
+      <c r="H62" s="25">
+        <f>((F39*1.005*1.01)+(F41*1.005))*1.15</f>
+        <v>2459.147063</v>
+      </c>
+      <c r="I62" s="25">
+        <f>((F51*1.005*1.01)+(F53*1.005))*1.15</f>
+        <v>16.887819</v>
       </c>
     </row>
     <row r="63">
@@ -1926,10 +1956,13 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="18"/>
+      <c r="E77" s="19">
+        <f>F70*100.5%/D75</f>
+        <v>2412</v>
+      </c>
       <c r="F77" s="18">
-        <f>F76*1%</f>
-        <v>24.1878375</v>
+        <f>E77*1%</f>
+        <v>24.12</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="5"/>
@@ -1945,7 +1978,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="18">
         <f>F76+F77</f>
-        <v>2442.971588</v>
+        <v>2442.90375</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="5"/>
@@ -1958,26 +1991,29 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="18"/>
+      <c r="E79" s="18">
+        <f>F78</f>
+        <v>2442.90375</v>
+      </c>
       <c r="F79" s="18">
-        <f>F78*15%</f>
-        <v>366.4457381</v>
+        <f>E79*15%</f>
+        <v>366.4355625</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
     <row r="80">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="21">
+      <c r="E80" s="21"/>
+      <c r="F80" s="22">
         <f>round(F78+F79,2)</f>
-        <v>2809.42</v>
+        <v>2809.34</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="5"/>
@@ -2106,7 +2142,7 @@
         <f>F82+F84+F86</f>
         <v>14.6127</v>
       </c>
-      <c r="G87" s="20"/>
+      <c r="G87" s="21"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
@@ -2126,7 +2162,7 @@
         <f>F87/D87</f>
         <v>14.6127</v>
       </c>
-      <c r="G88" s="20"/>
+      <c r="G88" s="21"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
@@ -2137,12 +2173,15 @@
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="18"/>
+      <c r="E89" s="19">
+        <f>F82*100.5%/D87</f>
+        <v>7.236</v>
+      </c>
       <c r="F89" s="18">
-        <f>F88*1%</f>
-        <v>0.146127</v>
-      </c>
-      <c r="G89" s="20"/>
+        <f>E89*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G89" s="21"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
@@ -2156,9 +2195,9 @@
       <c r="E90" s="9"/>
       <c r="F90" s="18">
         <f>F88+F89</f>
-        <v>14.758827</v>
-      </c>
-      <c r="G90" s="20"/>
+        <v>14.68506</v>
+      </c>
+      <c r="G90" s="21"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
@@ -2169,51 +2208,54 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="18"/>
+      <c r="E91" s="18">
+        <f>F90</f>
+        <v>14.68506</v>
+      </c>
       <c r="F91" s="18">
-        <f>F90*15%</f>
-        <v>2.21382405</v>
-      </c>
-      <c r="G91" s="20"/>
+        <f>E91*15%</f>
+        <v>2.202759</v>
+      </c>
+      <c r="G91" s="21"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
     <row r="92">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="21">
+      <c r="E92" s="21"/>
+      <c r="F92" s="22">
         <f>round(F90+F91,2)</f>
-        <v>16.97</v>
+        <v>16.89</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
     <row r="93">
-      <c r="A93" s="22" t="str">
+      <c r="A93" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F80," + ",F92," x Cost Index")                                           </f>
-        <v>Say ₹ 2809.42 + 16.97 x Cost Index</v>
+        <v>Say ₹ 2809.34 + 16.89 x Cost Index</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="23" t="s">
+      <c r="G93" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H93" s="24">
-        <f>(F70+F72)*1.005*1.01*1.15</f>
-        <v>2809.417326</v>
-      </c>
-      <c r="I93" s="24">
-        <f>(F82+F84)*1.005*1.01*1.15</f>
-        <v>16.97265105</v>
+      <c r="H93" s="25">
+        <f>((F70*1.005*1.01)+(F72*1.005))*1.15</f>
+        <v>2809.339313</v>
+      </c>
+      <c r="I93" s="25">
+        <f>((F82*1.005*1.01)+(F84*1.005))*1.15</f>
+        <v>16.887819</v>
       </c>
     </row>
     <row r="94">
@@ -2470,10 +2512,13 @@
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="18"/>
+      <c r="E108" s="19">
+        <f>F101*100.5%/D106</f>
+        <v>2763.75</v>
+      </c>
       <c r="F108" s="18">
-        <f>F107*1%</f>
-        <v>27.7053375</v>
+        <f>E108*1%</f>
+        <v>27.6375</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="5"/>
@@ -2489,7 +2534,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="18">
         <f>F107+F108</f>
-        <v>2798.239088</v>
+        <v>2798.17125</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="5"/>
@@ -2502,26 +2547,29 @@
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="18"/>
+      <c r="E110" s="18">
+        <f>F109</f>
+        <v>2798.17125</v>
+      </c>
       <c r="F110" s="18">
-        <f>F109*15%</f>
-        <v>419.7358631</v>
+        <f>E110*15%</f>
+        <v>419.7256875</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
     <row r="111">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="21">
+      <c r="E111" s="21"/>
+      <c r="F111" s="22">
         <f>round(F109+F110,2)</f>
-        <v>3217.97</v>
+        <v>3217.9</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="5"/>
@@ -2650,7 +2698,7 @@
         <f>F113+F115+F117</f>
         <v>14.6127</v>
       </c>
-      <c r="G118" s="20"/>
+      <c r="G118" s="21"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
@@ -2670,7 +2718,7 @@
         <f>F118/D118</f>
         <v>14.6127</v>
       </c>
-      <c r="G119" s="20"/>
+      <c r="G119" s="21"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
@@ -2681,12 +2729,15 @@
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="18"/>
+      <c r="E120" s="19">
+        <f>F113*100.5%/D118</f>
+        <v>7.236</v>
+      </c>
       <c r="F120" s="18">
-        <f>F119*1%</f>
-        <v>0.146127</v>
-      </c>
-      <c r="G120" s="20"/>
+        <f>E120*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G120" s="21"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
@@ -2700,9 +2751,9 @@
       <c r="E121" s="9"/>
       <c r="F121" s="18">
         <f>F119+F120</f>
-        <v>14.758827</v>
-      </c>
-      <c r="G121" s="20"/>
+        <v>14.68506</v>
+      </c>
+      <c r="G121" s="21"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
@@ -2713,51 +2764,54 @@
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="18"/>
+      <c r="E122" s="18">
+        <f>F121</f>
+        <v>14.68506</v>
+      </c>
       <c r="F122" s="18">
-        <f>F121*15%</f>
-        <v>2.21382405</v>
-      </c>
-      <c r="G122" s="20"/>
+        <f>E122*15%</f>
+        <v>2.202759</v>
+      </c>
+      <c r="G122" s="21"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
     <row r="123">
-      <c r="A123" s="19" t="s">
+      <c r="A123" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="21">
+      <c r="E123" s="21"/>
+      <c r="F123" s="22">
         <f>round(F121+F122,2)</f>
-        <v>16.97</v>
+        <v>16.89</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
     <row r="124">
-      <c r="A124" s="22" t="str">
+      <c r="A124" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F111," + ",F123," x Cost Index")                                           </f>
-        <v>Say ₹ 3217.97 + 16.97 x Cost Index</v>
+        <v>Say ₹ 3217.9 + 16.89 x Cost Index</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="23" t="s">
+      <c r="G124" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H124" s="24">
-        <f>(F101+F103)*1.005*1.01*1.15</f>
-        <v>3217.974951</v>
-      </c>
-      <c r="I124" s="24">
-        <f>(F113+F115)*1.005*1.01*1.15</f>
-        <v>16.97265105</v>
+      <c r="H124" s="25">
+        <f>((F101*1.005*1.01)+(F103*1.005))*1.15</f>
+        <v>3217.896938</v>
+      </c>
+      <c r="I124" s="25">
+        <f>((F113*1.005*1.01)+(F115*1.005))*1.15</f>
+        <v>16.887819</v>
       </c>
     </row>
     <row r="125">
@@ -3014,10 +3068,13 @@
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="18"/>
+      <c r="E139" s="19">
+        <f>F132*100.5%/D137</f>
+        <v>3165.75</v>
+      </c>
       <c r="F139" s="18">
-        <f>F138*1%</f>
-        <v>31.7253375</v>
+        <f>E139*1%</f>
+        <v>31.6575</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="5"/>
@@ -3033,7 +3090,7 @@
       <c r="E140" s="9"/>
       <c r="F140" s="18">
         <f>F138+F139</f>
-        <v>3204.259088</v>
+        <v>3204.19125</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="5"/>
@@ -3046,26 +3103,29 @@
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="18"/>
+      <c r="E141" s="18">
+        <f>F140</f>
+        <v>3204.19125</v>
+      </c>
       <c r="F141" s="18">
-        <f>F140*15%</f>
-        <v>480.6388631</v>
+        <f>E141*15%</f>
+        <v>480.6286875</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
     </row>
     <row r="142">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="21">
+      <c r="E142" s="21"/>
+      <c r="F142" s="22">
         <f>round(F140+F141,2)</f>
-        <v>3684.9</v>
+        <v>3684.82</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="5"/>
@@ -3194,7 +3254,7 @@
         <f>F144+F146+F148</f>
         <v>14.6127</v>
       </c>
-      <c r="G149" s="20"/>
+      <c r="G149" s="21"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
     </row>
@@ -3214,7 +3274,7 @@
         <f>F149/D149</f>
         <v>14.6127</v>
       </c>
-      <c r="G150" s="20"/>
+      <c r="G150" s="21"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
     </row>
@@ -3225,12 +3285,15 @@
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="18"/>
+      <c r="E151" s="19">
+        <f>F144*100.5%/D149</f>
+        <v>7.236</v>
+      </c>
       <c r="F151" s="18">
-        <f>F150*1%</f>
-        <v>0.146127</v>
-      </c>
-      <c r="G151" s="20"/>
+        <f>E151*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G151" s="21"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
     </row>
@@ -3244,9 +3307,9 @@
       <c r="E152" s="9"/>
       <c r="F152" s="18">
         <f>F150+F151</f>
-        <v>14.758827</v>
-      </c>
-      <c r="G152" s="20"/>
+        <v>14.68506</v>
+      </c>
+      <c r="G152" s="21"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
     </row>
@@ -3257,51 +3320,54 @@
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="18"/>
+      <c r="E153" s="18">
+        <f>F152</f>
+        <v>14.68506</v>
+      </c>
       <c r="F153" s="18">
-        <f>F152*15%</f>
-        <v>2.21382405</v>
-      </c>
-      <c r="G153" s="20"/>
+        <f>E153*15%</f>
+        <v>2.202759</v>
+      </c>
+      <c r="G153" s="21"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
     </row>
     <row r="154">
-      <c r="A154" s="19" t="s">
+      <c r="A154" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="21">
+      <c r="E154" s="21"/>
+      <c r="F154" s="22">
         <f>round(F152+F153,2)</f>
-        <v>16.97</v>
+        <v>16.89</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
     </row>
     <row r="155">
-      <c r="A155" s="22" t="str">
+      <c r="A155" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F142," + ",F154," x Cost Index")                                           </f>
-        <v>Say ₹ 3684.9 + 16.97 x Cost Index</v>
+        <v>Say ₹ 3684.82 + 16.89 x Cost Index</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="23" t="s">
+      <c r="G155" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H155" s="24">
-        <f>(F132+F134)*1.005*1.01*1.15</f>
-        <v>3684.897951</v>
-      </c>
-      <c r="I155" s="24">
-        <f>(F144+F146)*1.005*1.01*1.15</f>
-        <v>16.97265105</v>
+      <c r="H155" s="25">
+        <f>((F132*1.005*1.01)+(F134*1.005))*1.15</f>
+        <v>3684.819938</v>
+      </c>
+      <c r="I155" s="25">
+        <f>((F144*1.005*1.01)+(F146*1.005))*1.15</f>
+        <v>16.887819</v>
       </c>
     </row>
   </sheetData>
